--- a/v6_A-B-C-D-E_Sputtering_ML/v6_A-B-C-D-E_Sputtering_ML_KW/v6_KW99_SSS_FCC_byCompo_wt_pct.xlsx
+++ b/v6_A-B-C-D-E_Sputtering_ML/v6_A-B-C-D-E_Sputtering_ML_KW/v6_KW99_SSS_FCC_byCompo_wt_pct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/InSync/2021_MPIE/2021-12_H Diffusion/Matlab Toolbox HEA/v6_A-B-C-D-E_Sputtering/CCA_CALPHAD_SSS_ML/v6_A-B-C-D-E_Sputtering_ML/v6_A-B-C-D-E_Sputtering_ML_KW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAC7CF3-59D5-2D48-AD13-877FB7008EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6E1EA1-6CEB-E746-9D36-BEC3DF3E0700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="37460" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32680" yWindow="640" windowWidth="37460" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Var1</t>
   </si>
@@ -72,6 +72,216 @@
   </si>
   <si>
     <t>sigma_SSS</t>
+  </si>
+  <si>
+    <t>FORMULA</t>
+  </si>
+  <si>
+    <t>Ni49.6Cr33.7Co4.6V1.8Fe10.3</t>
+  </si>
+  <si>
+    <t>Ni45.3Cr35.4Co6.3V2.6Fe10.5</t>
+  </si>
+  <si>
+    <t>Ni41.4Cr35.2Co8.7V3.6Fe11.1</t>
+  </si>
+  <si>
+    <t>Ni37.2Cr34.5Co11.9V5.1Fe11.3</t>
+  </si>
+  <si>
+    <t>Ni33.1Cr32.7Co15.8V6.9Fe11.5</t>
+  </si>
+  <si>
+    <t>Ni59.2Cr24.9Co2.7V1.4Fe11.9</t>
+  </si>
+  <si>
+    <t>Ni54.5Cr27.1Co4V1.8Fe12.6</t>
+  </si>
+  <si>
+    <t>Ni49.8Cr28.7Co5.5V2.7Fe13.4</t>
+  </si>
+  <si>
+    <t>Ni44.8Cr29.1Co8V4Fe14.1</t>
+  </si>
+  <si>
+    <t>Ni40Cr29.1Co10.3V5.8Fe14.8</t>
+  </si>
+  <si>
+    <t>Ni35.9Cr27.9Co13.6V8Fe14.6</t>
+  </si>
+  <si>
+    <t>Ni31.2Cr26.1Co17.3V11.5Fe13.9</t>
+  </si>
+  <si>
+    <t>Ni67.4Cr16.5Co1.6V0.9Fe13.5</t>
+  </si>
+  <si>
+    <t>Ni62.4Cr19.1Co2.4V1.4Fe14.7</t>
+  </si>
+  <si>
+    <t>Ni57.4Cr21.2Co3.4V1.9Fe16</t>
+  </si>
+  <si>
+    <t>Ni51.9Cr23.1Co4.8V3.1Fe17.2</t>
+  </si>
+  <si>
+    <t>Ni48.2Cr23.7Co6.2V4.1Fe17.7</t>
+  </si>
+  <si>
+    <t>Ni42.5Cr24Co8.7V6.5Fe18.3</t>
+  </si>
+  <si>
+    <t>Ni38.3Cr23.2Co11.4V9.1Fe18.1</t>
+  </si>
+  <si>
+    <t>Ni33.3Cr21.8Co14.8V12.9Fe17.3</t>
+  </si>
+  <si>
+    <t>Ni28.6Cr20Co17.5V18.2Fe15.8</t>
+  </si>
+  <si>
+    <t>Ni68Cr12.8Co1.5V0.9Fe16.7</t>
+  </si>
+  <si>
+    <t>Ni63.4Cr15Co1.9V1.3Fe18.4</t>
+  </si>
+  <si>
+    <t>Ni58.7Cr16.5Co2.9V2Fe19.9</t>
+  </si>
+  <si>
+    <t>Ni53.6Cr17.9Co4V3.1Fe21.5</t>
+  </si>
+  <si>
+    <t>Ni48.1Cr19.2Co5.4V4.7Fe22.6</t>
+  </si>
+  <si>
+    <t>Ni44Cr19.6Co7.2V6.7Fe22.4</t>
+  </si>
+  <si>
+    <t>Ni39.3Cr19.1Co9.4V10.1Fe22.2</t>
+  </si>
+  <si>
+    <t>Ni34.3Cr18.6Co11.5V14.5Fe21.1</t>
+  </si>
+  <si>
+    <t>Ni29.4Cr16.4Co14.4V20.2Fe19.7</t>
+  </si>
+  <si>
+    <t>Ni66.8Cr9.8Co1.3V1Fe21.1</t>
+  </si>
+  <si>
+    <t>Ni61.7Cr11.5Co1.8V1.5Fe23.5</t>
+  </si>
+  <si>
+    <t>Ni57.7Cr12.8Co2.4V2.2Fe24.9</t>
+  </si>
+  <si>
+    <t>Ni52.9Cr14Co3.4V3.2Fe26.5</t>
+  </si>
+  <si>
+    <t>Ni48.4Cr15.2Co4.4V4.8Fe27.2</t>
+  </si>
+  <si>
+    <t>Ni44.1Cr15.3Co6.1V7.1Fe27.4</t>
+  </si>
+  <si>
+    <t>Ni38.6Cr15.8Co8V10.3Fe27.4</t>
+  </si>
+  <si>
+    <t>Ni34.2Cr14.6Co9.7V15.4Fe26</t>
+  </si>
+  <si>
+    <t>Ni29.4Cr14.3Co11.4V21.1Fe23.8</t>
+  </si>
+  <si>
+    <t>Ni64Cr7.6Co1.1V1Fe26.3</t>
+  </si>
+  <si>
+    <t>Ni59.1Cr8.9Co1.6V1.4Fe29.1</t>
+  </si>
+  <si>
+    <t>Ni54.8Cr9.8Co2V2.2Fe31.3</t>
+  </si>
+  <si>
+    <t>Ni50.4Cr10.9Co2.7V3.2Fe32.9</t>
+  </si>
+  <si>
+    <t>Ni46.3Cr11.6Co3.7V4.7Fe33.7</t>
+  </si>
+  <si>
+    <t>Ni42.1Cr12.3Co4.6V7.2Fe33.7</t>
+  </si>
+  <si>
+    <t>Ni38.1Cr12.4Co6.2V10.3Fe33</t>
+  </si>
+  <si>
+    <t>Ni33.2Cr12.2Co7.6V15.8Fe31.2</t>
+  </si>
+  <si>
+    <t>Ni29.4Cr12Co8.9V21.9Fe27.8</t>
+  </si>
+  <si>
+    <t>Ni58.3Cr6.1Co1V1Fe33.6</t>
+  </si>
+  <si>
+    <t>Ni53.9Cr7Co1.3V1.4Fe36.4</t>
+  </si>
+  <si>
+    <t>Ni49.9Cr7.6Co1.7V2Fe38.9</t>
+  </si>
+  <si>
+    <t>Ni46.7Cr8.3Co2.2V3Fe39.8</t>
+  </si>
+  <si>
+    <t>Ni42.8Cr9Co2.9V4.6Fe40.7</t>
+  </si>
+  <si>
+    <t>Ni39.3Cr9.4Co3.8V6.8Fe40.7</t>
+  </si>
+  <si>
+    <t>Ni36.2Cr9.8Co4.6V10.3Fe39.1</t>
+  </si>
+  <si>
+    <t>Ni32.4Cr10.3Co6.1V15.2Fe36</t>
+  </si>
+  <si>
+    <t>Ni28.5Cr9.8Co7.2V21.7Fe32.8</t>
+  </si>
+  <si>
+    <t>Ni47.4Cr5.3Co1.1V1.3Fe44.9</t>
+  </si>
+  <si>
+    <t>Ni44.4Cr5.8Co1.4V2Fe46.5</t>
+  </si>
+  <si>
+    <t>Ni41.5Cr6.5Co1.7V3Fe47.4</t>
+  </si>
+  <si>
+    <t>Ni38.5Cr7Co2.2V4.1Fe48.1</t>
+  </si>
+  <si>
+    <t>Ni35.7Cr7.3Co3V6.5Fe47.5</t>
+  </si>
+  <si>
+    <t>Ni32.7Cr8Co3.9V9.6Fe45.9</t>
+  </si>
+  <si>
+    <t>Ni30.3Cr7.8Co4.9V14.4Fe42.5</t>
+  </si>
+  <si>
+    <t>Ni37.2Cr4.5Co1.3V1.8Fe55.2</t>
+  </si>
+  <si>
+    <t>Ni35.1Cr5Co1.4V2.8Fe55.8</t>
+  </si>
+  <si>
+    <t>Ni33.3Cr5.3Co1.9V4.1Fe55.4</t>
+  </si>
+  <si>
+    <t>Ni31.2Cr5.8Co2.3V6Fe54.6</t>
+  </si>
+  <si>
+    <t>Ni30.2Cr6.3Co3V9Fe51.6</t>
   </si>
 </sst>
 </file>
@@ -420,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:R1048576"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -435,18 +645,18 @@
     <col min="7" max="7" width="10.1640625" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="28.5" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.6640625" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" customWidth="1"/>
     <col min="18" max="18" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +696,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -527,8 +740,11 @@
       <c r="M2">
         <v>219.93644827914721</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -566,10 +782,13 @@
         <v>5.3043646401421611E-2</v>
       </c>
       <c r="M3">
-        <v>237.23155513435273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>237.2315551343527</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -604,13 +823,16 @@
         <v>0.27748071859195378</v>
       </c>
       <c r="L4">
-        <v>5.5288874138794866E-2</v>
+        <v>5.5288874138794873E-2</v>
       </c>
       <c r="M4">
         <v>253.84211301410451</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -648,10 +870,13 @@
         <v>5.8643925002646861E-2</v>
       </c>
       <c r="M5">
-        <v>278.52660118208735</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>278.52660118208729</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -683,7 +908,7 @@
         <v>87.184873704446446</v>
       </c>
       <c r="K6">
-        <v>0.28147663737994016</v>
+        <v>0.28147663737994022</v>
       </c>
       <c r="L6">
         <v>6.230378871740988E-2</v>
@@ -691,8 +916,11 @@
       <c r="M6">
         <v>304.9245092489038</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -724,16 +952,19 @@
         <v>85.909106044985819</v>
       </c>
       <c r="K7">
-        <v>0.28714312908925177</v>
+        <v>0.28714312908925183</v>
       </c>
       <c r="L7">
-        <v>4.8242260234634585E-2</v>
+        <v>4.8242260234634578E-2</v>
       </c>
       <c r="M7">
-        <v>194.39702571117672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>194.3970257111767</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -765,16 +996,19 @@
         <v>86.69354187428587</v>
       </c>
       <c r="K8">
-        <v>0.28482348435675575</v>
+        <v>0.28482348435675581</v>
       </c>
       <c r="L8">
-        <v>4.9612837228413496E-2</v>
+        <v>4.9612837228413503E-2</v>
       </c>
       <c r="M8">
         <v>205.97492404799459</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -806,16 +1040,19 @@
         <v>87.035019690099801</v>
       </c>
       <c r="K9">
-        <v>0.28345967638688485</v>
+        <v>0.28345967638688491</v>
       </c>
       <c r="L9">
-        <v>5.2503804330441516E-2</v>
+        <v>5.2503804330441523E-2</v>
       </c>
       <c r="M9">
-        <v>227.89969023923422</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>227.89969023923419</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -850,13 +1087,16 @@
         <v>0.28346819932265338</v>
       </c>
       <c r="L10">
-        <v>5.5939498569030716E-2</v>
+        <v>5.5939498569030723E-2</v>
       </c>
       <c r="M10">
-        <v>253.42726193629795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>253.42726193629801</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -896,8 +1136,11 @@
       <c r="M11">
         <v>285.5255348730106</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -929,7 +1172,7 @@
         <v>85.00483415703512</v>
       </c>
       <c r="K12">
-        <v>0.28661210144522253</v>
+        <v>0.28661210144522248</v>
       </c>
       <c r="L12">
         <v>6.495942964790441E-2</v>
@@ -937,8 +1180,11 @@
       <c r="M12">
         <v>320.14983279717501</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -976,10 +1222,13 @@
         <v>7.1370917884803958E-2</v>
       </c>
       <c r="M13">
-        <v>367.35414678792756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>367.35414678792762</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1017,10 +1266,13 @@
         <v>4.2213104684406859E-2</v>
       </c>
       <c r="M14">
-        <v>148.69839316006505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>148.69839316006511</v>
+      </c>
+      <c r="N14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1058,10 +1310,13 @@
         <v>4.5273619660018298E-2</v>
       </c>
       <c r="M15">
-        <v>170.49240537810516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>170.49240537810519</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1099,10 +1354,13 @@
         <v>4.7490905741312331E-2</v>
       </c>
       <c r="M16">
-        <v>187.24240884090486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>187.24240884090489</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1137,13 +1395,16 @@
         <v>0.28873537486811079</v>
       </c>
       <c r="L17">
-        <v>5.2077688221095875E-2</v>
+        <v>5.2077688221095868E-2</v>
       </c>
       <c r="M17">
-        <v>220.53682535821193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>220.5368253582119</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1175,16 +1436,19 @@
         <v>84.830419274690158</v>
       </c>
       <c r="K18">
-        <v>0.28845496380084845</v>
+        <v>0.28845496380084851</v>
       </c>
       <c r="L18">
         <v>5.5135895673350963E-2</v>
       </c>
       <c r="M18">
-        <v>243.00032467224193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>243.0003246722419</v>
+      </c>
+      <c r="N18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1224,8 +1488,11 @@
       <c r="M19">
         <v>290.1820471855284</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1265,8 +1532,11 @@
       <c r="M20">
         <v>332.67123107839808</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1298,16 +1568,19 @@
         <v>81.018537470398087</v>
       </c>
       <c r="K21">
-        <v>0.29515972370605625</v>
+        <v>0.29515972370605631</v>
       </c>
       <c r="L21">
         <v>7.4088665832548348E-2</v>
       </c>
       <c r="M21">
-        <v>382.85391564257384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>382.85391564257378</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1339,16 +1612,19 @@
         <v>78.421720770927863</v>
       </c>
       <c r="K22">
-        <v>0.30021899419333886</v>
+        <v>0.30021899419333892</v>
       </c>
       <c r="L22">
         <v>8.1404828206381105E-2</v>
       </c>
       <c r="M22">
-        <v>435.37314456142155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>435.37314456142161</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1380,16 +1656,19 @@
         <v>81.666877489287401</v>
       </c>
       <c r="K23">
-        <v>0.29836846559270813</v>
+        <v>0.29836846559270808</v>
       </c>
       <c r="L23">
-        <v>3.8538306715929616E-2</v>
+        <v>3.8538306715929622E-2</v>
       </c>
       <c r="M23">
-        <v>124.62157263043318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>124.62157263043321</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1427,10 +1706,13 @@
         <v>4.153831035019051E-2</v>
       </c>
       <c r="M24">
-        <v>144.62960658604334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>144.62960658604331</v>
+      </c>
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1462,7 +1744,7 @@
         <v>82.881370751244503</v>
       </c>
       <c r="K25">
-        <v>0.29442333228857054</v>
+        <v>0.29442333228857048</v>
       </c>
       <c r="L25">
         <v>4.5218452987797662E-2</v>
@@ -1470,8 +1752,11 @@
       <c r="M25">
         <v>169.40035639986729</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1503,16 +1788,19 @@
         <v>83.108508483732706</v>
       </c>
       <c r="K26">
-        <v>0.29323248057662893</v>
+        <v>0.29323248057662887</v>
       </c>
       <c r="L26">
-        <v>4.9910075026928485E-2</v>
+        <v>4.9910075026928492E-2</v>
       </c>
       <c r="M26">
-        <v>201.97877451337655</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>201.97877451337649</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1544,16 +1832,19 @@
         <v>83.100181952330175</v>
       </c>
       <c r="K27">
-        <v>0.29249148234530103</v>
+        <v>0.29249148234530098</v>
       </c>
       <c r="L27">
         <v>5.5430548543535879E-2</v>
       </c>
       <c r="M27">
-        <v>241.70739063276554</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>241.70739063276551</v>
+      </c>
+      <c r="N27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1591,10 +1882,13 @@
         <v>6.1140665631698697E-2</v>
       </c>
       <c r="M28">
-        <v>283.30094035371957</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>283.30094035371962</v>
+      </c>
+      <c r="N28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1634,8 +1928,11 @@
       <c r="M29">
         <v>340.56095614362113</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1667,7 +1964,7 @@
         <v>79.319925708416264</v>
       </c>
       <c r="K30">
-        <v>0.29879595114534213</v>
+        <v>0.29879595114534208</v>
       </c>
       <c r="L30">
         <v>7.6615395810908163E-2</v>
@@ -1675,8 +1972,11 @@
       <c r="M30">
         <v>397.71037585245648</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1716,8 +2016,11 @@
       <c r="M31">
         <v>449.157797506132</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1752,13 +2055,16 @@
         <v>0.30059585501742481</v>
       </c>
       <c r="L32">
-        <v>3.6025307856116316E-2</v>
+        <v>3.6025307856116323E-2</v>
       </c>
       <c r="M32">
-        <v>109.31241040127914</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>109.3124104012791</v>
+      </c>
+      <c r="N32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1790,16 +2096,19 @@
         <v>81.311039864041078</v>
       </c>
       <c r="K33">
-        <v>0.29858301175793034</v>
+        <v>0.29858301175793028</v>
       </c>
       <c r="L33">
         <v>3.9972793028692027E-2</v>
       </c>
       <c r="M33">
-        <v>133.99543936109546</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>133.99543936109549</v>
+      </c>
+      <c r="N33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1831,7 +2140,7 @@
         <v>81.637118758241655</v>
       </c>
       <c r="K34">
-        <v>0.29731296803813256</v>
+        <v>0.29731296803813262</v>
       </c>
       <c r="L34">
         <v>4.4088401373364408E-2</v>
@@ -1839,8 +2148,11 @@
       <c r="M34">
         <v>160.59741782760031</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1880,8 +2192,11 @@
       <c r="M35">
         <v>191.2520810504042</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1921,8 +2236,11 @@
       <c r="M36">
         <v>232.5026319639112</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1954,7 +2272,7 @@
         <v>80.985833016893295</v>
       </c>
       <c r="K37">
-        <v>0.29684447915099965</v>
+        <v>0.29684447915099971</v>
       </c>
       <c r="L37">
         <v>6.1234987400686877E-2</v>
@@ -1962,8 +2280,11 @@
       <c r="M37">
         <v>280.1182951031854</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1995,7 +2316,7 @@
         <v>80.037920486048449</v>
       </c>
       <c r="K38">
-        <v>0.29810340236801874</v>
+        <v>0.29810340236801869</v>
       </c>
       <c r="L38">
         <v>6.8612090642677023E-2</v>
@@ -2003,8 +2324,11 @@
       <c r="M38">
         <v>334.8408703964559</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2036,7 +2360,7 @@
         <v>77.712369163177343</v>
       </c>
       <c r="K39">
-        <v>0.30246015384969016</v>
+        <v>0.30246015384969022</v>
       </c>
       <c r="L39">
         <v>7.7711691229503069E-2</v>
@@ -2044,8 +2368,11 @@
       <c r="M39">
         <v>400.86188273607343</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2085,8 +2412,11 @@
       <c r="M40">
         <v>451.75839847320151</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2118,16 +2448,19 @@
         <v>80.135165300525657</v>
       </c>
       <c r="K41">
-        <v>0.30174457812057864</v>
+        <v>0.30174457812057859</v>
       </c>
       <c r="L41">
         <v>3.4731200609199021E-2</v>
       </c>
       <c r="M41">
-        <v>102.04080258053489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <v>102.0408025805349</v>
+      </c>
+      <c r="N41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2162,13 +2495,16 @@
         <v>0.3000129382474972</v>
       </c>
       <c r="L42">
-        <v>3.8017846809357235E-2</v>
+        <v>3.8017846809357228E-2</v>
       </c>
       <c r="M42">
-        <v>121.68367175013037</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>121.6836717501304</v>
+      </c>
+      <c r="N42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2200,7 +2536,7 @@
         <v>80.819516356313883</v>
       </c>
       <c r="K43">
-        <v>0.29905808086074476</v>
+        <v>0.29905808086074481</v>
       </c>
       <c r="L43">
         <v>4.2575225630251207E-2</v>
@@ -2208,8 +2544,11 @@
       <c r="M43">
         <v>149.7427758623688</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2241,16 +2580,19 @@
         <v>80.96887045585747</v>
       </c>
       <c r="K44">
-        <v>0.29812509771062895</v>
+        <v>0.29812509771062901</v>
       </c>
       <c r="L44">
-        <v>4.7295910056947985E-2</v>
+        <v>4.7295910056947978E-2</v>
       </c>
       <c r="M44">
-        <v>180.60097071678925</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>180.60097071678919</v>
+      </c>
+      <c r="N44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2282,7 +2624,7 @@
         <v>80.748718623249374</v>
       </c>
       <c r="K45">
-        <v>0.29803359998070045</v>
+        <v>0.29803359998070039</v>
       </c>
       <c r="L45">
         <v>5.2961373688027821E-2</v>
@@ -2290,8 +2632,11 @@
       <c r="M45">
         <v>219.0245403481434</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2323,16 +2668,19 @@
         <v>80.106370726503044</v>
       </c>
       <c r="K46">
-        <v>0.29871872579539305</v>
+        <v>0.29871872579539299</v>
       </c>
       <c r="L46">
         <v>6.0565874248087521E-2</v>
       </c>
       <c r="M46">
-        <v>272.76884574534705</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <v>272.76884574534711</v>
+      </c>
+      <c r="N46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2372,8 +2720,11 @@
       <c r="M47">
         <v>326.65310878046859</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2411,10 +2762,13 @@
         <v>7.7877115529838323E-2</v>
       </c>
       <c r="M48">
-        <v>398.99609650369644</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>398.99609650369638</v>
+      </c>
+      <c r="N48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2454,8 +2808,11 @@
       <c r="M49">
         <v>453.91957064833719</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2495,8 +2852,11 @@
       <c r="M50">
         <v>99.373944748396369</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2534,10 +2894,13 @@
         <v>3.721866258326486E-2</v>
       </c>
       <c r="M51">
-        <v>116.83626826084121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+        <v>116.83626826084119</v>
+      </c>
+      <c r="N51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2575,10 +2938,13 @@
         <v>4.0621154196213573E-2</v>
       </c>
       <c r="M52">
-        <v>137.33882683658697</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>137.338826836587</v>
+      </c>
+      <c r="N52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2613,13 +2979,16 @@
         <v>0.29920312510973818</v>
       </c>
       <c r="L53">
-        <v>4.5354994851849524E-2</v>
+        <v>4.5354994851849517E-2</v>
       </c>
       <c r="M53">
-        <v>167.01207344055226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+        <v>167.01207344055231</v>
+      </c>
+      <c r="N53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2651,16 +3020,19 @@
         <v>80.153667898745354</v>
       </c>
       <c r="K54">
-        <v>0.29918866467520344</v>
+        <v>0.29918866467520339</v>
       </c>
       <c r="L54">
         <v>5.1564184514456803E-2</v>
       </c>
       <c r="M54">
-        <v>208.03091410577562</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+        <v>208.03091410577559</v>
+      </c>
+      <c r="N54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2700,8 +3072,11 @@
       <c r="M55">
         <v>255.8651418757957</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2741,8 +3116,11 @@
       <c r="M56">
         <v>319.03500818295731</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2782,8 +3160,11 @@
       <c r="M57">
         <v>386.84564709086447</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2823,8 +3204,11 @@
       <c r="M58">
         <v>447.1741477074122</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2862,10 +3246,13 @@
         <v>3.6176292937629369E-2</v>
       </c>
       <c r="M59">
-        <v>110.90584247935199</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>110.905842479352</v>
+      </c>
+      <c r="N59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2905,8 +3292,11 @@
       <c r="M60">
         <v>132.78031048248681</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2938,16 +3328,19 @@
         <v>80.128483828707957</v>
       </c>
       <c r="K61">
-        <v>0.29946008614848707</v>
+        <v>0.29946008614848713</v>
       </c>
       <c r="L61">
         <v>4.4530078181298678E-2</v>
       </c>
       <c r="M61">
-        <v>161.30211960193446</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+        <v>161.30211960193449</v>
+      </c>
+      <c r="N61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2987,8 +3380,11 @@
       <c r="M62">
         <v>189.16466949803331</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3026,10 +3422,13 @@
         <v>5.6764192549295663E-2</v>
       </c>
       <c r="M63">
-        <v>242.45964033602937</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>242.45964033602939</v>
+      </c>
+      <c r="N63" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3061,16 +3460,19 @@
         <v>78.241070632227533</v>
       </c>
       <c r="K64">
-        <v>0.30197482757967153</v>
+        <v>0.30197482757967148</v>
       </c>
       <c r="L64">
         <v>6.4919492371309478E-2</v>
       </c>
       <c r="M64">
-        <v>300.44390234933746</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+        <v>300.44390234933752</v>
+      </c>
+      <c r="N64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3108,10 +3510,13 @@
         <v>7.4591428110924979E-2</v>
       </c>
       <c r="M65">
-        <v>369.85903895026473</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>369.85903895026468</v>
+      </c>
+      <c r="N65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3149,10 +3554,13 @@
         <v>3.7959372405628529E-2</v>
       </c>
       <c r="M66">
-        <v>121.30710036694163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+        <v>121.3071003669416</v>
+      </c>
+      <c r="N66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3192,8 +3600,11 @@
       <c r="M67">
         <v>149.13199203216911</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3228,13 +3639,16 @@
         <v>0.29958352261979448</v>
       </c>
       <c r="L68">
-        <v>4.7856477302996664E-2</v>
+        <v>4.7856477302996657E-2</v>
       </c>
       <c r="M68">
         <v>182.033618999167</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3266,16 +3680,19 @@
         <v>79.164521637985686</v>
       </c>
       <c r="K69">
-        <v>0.30032416742353163</v>
+        <v>0.30032416742353157</v>
       </c>
       <c r="L69">
-        <v>5.4359983465229925E-2</v>
+        <v>5.4359983465229918E-2</v>
       </c>
       <c r="M69">
         <v>225.2043953462188</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3307,13 +3724,16 @@
         <v>78.106099980363282</v>
       </c>
       <c r="K70">
-        <v>0.30219627267831145</v>
+        <v>0.30219627267831151</v>
       </c>
       <c r="L70">
         <v>6.2857630295555952E-2</v>
       </c>
       <c r="M70">
         <v>284.32332570797098</v>
+      </c>
+      <c r="N70" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
